--- a/392-préparation-release-210/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/392-préparation-release-210/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0-ballot</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T08:47:08+00:00</t>
+    <t>2025-12-03T08:35:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/392-préparation-release-210/ig/ValueSet-tddui-serafin-valueset.xlsx
+++ b/392-préparation-release-210/ig/ValueSet-tddui-serafin-valueset.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T08:35:48+00:00</t>
+    <t>2025-12-08T13:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
